--- a/测试用例编写/购物车功能测试.xlsx
+++ b/测试用例编写/购物车功能测试.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\研究生\3-校招测试\03-测试基础\9-UI自动化测试\3-TPshopUI自动化测试实战\测试用例编写\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1078A045-18EB-4D04-AFFB-25D970EDC599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814EA1A2-28A4-4A17-A17E-CBD16FE2552E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="购物车" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,38 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="96">
-  <si>
-    <t>添加失败(21种)</t>
-  </si>
-  <si>
-    <t>添加成功(20种商品)</t>
-  </si>
-  <si>
-    <t>添加失败(数量201)</t>
-  </si>
-  <si>
-    <t>1件能添加成功</t>
-  </si>
-  <si>
-    <t>库存件添加成功</t>
-  </si>
-  <si>
-    <t>"+"号失效
-加入购物车成功</t>
-  </si>
-  <si>
-    <t>1.编辑数量为200
-2.点击加号
-3.点击加入购物车</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="117">
   <si>
     <t>库存&gt;200</t>
   </si>
   <si>
-    <t>200件能添加成功</t>
-  </si>
-  <si>
     <t>库存&lt;200</t>
   </si>
   <si>
@@ -73,15 +46,6 @@
   </si>
   <si>
     <t>购物车添加商品</t>
-  </si>
-  <si>
-    <t>1.最底部
-2.可删除
-3.可收藏
-4.</t>
-  </si>
-  <si>
-    <t>失效商品展示正常</t>
   </si>
   <si>
     <t>P1</t>
@@ -291,9 +255,6 @@
     <t>tp_cart_004</t>
   </si>
   <si>
-    <t>数据同步</t>
-  </si>
-  <si>
     <t>显示正常
 商品信息与加入购物车前保持一致
 按照店铺分类</t>
@@ -406,13 +367,182 @@
   </si>
   <si>
     <t>用例编号ID</t>
+  </si>
+  <si>
+    <t>未按照店铺分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未通过，只显示一个总订单，未按照店铺分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp_cart_013</t>
+  </si>
+  <si>
+    <t>“-”号失效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp_cart_014</t>
+  </si>
+  <si>
+    <t>tp_cart_015</t>
+  </si>
+  <si>
+    <t>点击“+”号可以正常增加商品数量，小计=单价*数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击“+”号，弹出提示”商品数量不能大于(%库存数)“</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp_cart_016</t>
+  </si>
+  <si>
+    <r>
+      <t>数量小于库存时，输入数量为0，提示商品数量必须大于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.编辑数量为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示商品数量必须大于0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp_cart_017</t>
+  </si>
+  <si>
+    <t>库存&gt;201</t>
+  </si>
+  <si>
+    <t>无法输入数量为非整数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.编辑数量为a
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以输入非整数数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp_cart_018</t>
+  </si>
+  <si>
+    <t>tp_cart_019</t>
+  </si>
+  <si>
+    <t>购物车删除商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单件删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号已登录且购物车存在多种商品</t>
+  </si>
+  <si>
+    <t>账号已登录且购物车存在多种商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾选单个商品，点“X”按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾选多个商品，点“删除选中商品”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾选“全选”，点“删除选中商品”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部购物车商品删除，订单页面无商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个购物车商品删除，订单页面无已删除的商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个购物车商品删除，订单页面无该商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,6 +610,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -531,7 +669,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -565,6 +703,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -847,11 +994,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93936F58-766F-4821-9C6C-855DC1453CA3}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -859,453 +1006,630 @@
     <col min="1" max="3" width="13.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="48.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="13.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="50.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="13.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="114" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="57" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="57" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="H12" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="85.5" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="57" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D17" s="1" t="s">
-        <v>10</v>
+      <c r="D17" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="D18" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D19" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D20" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D21" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D22" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D23" s="1" t="s">
-        <v>0</v>
+      <c r="D19" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
